--- a/medicine/Enfance/Un_amour_de_tortue/Un_amour_de_tortue.xlsx
+++ b/medicine/Enfance/Un_amour_de_tortue/Un_amour_de_tortue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un amour de tortue (Esio Trot en version originale) est le titre d'un roman pour enfants de Roald Dahl paru en 1990.
 Il raconte l'histoire d'un vieux célibataire nommé M. Hoppy qui tombe amoureux de sa voisine, qui ne vit que pour sa tortue Alfred. 
